--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\diplomQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9464CB6-C2CB-4FFD-9CCA-C45DF0B15707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C74425-E09A-481C-B681-C77A3E5F0973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4D3E962-7F9C-4E1C-895F-70500B7B2AE7}"/>
   </bookViews>
@@ -35,9 +35,218 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Название (Title):</t>
+  </si>
+  <si>
+    <t>Описание( Summary):</t>
+  </si>
+  <si>
+    <t>Приоритет (Priority)</t>
+  </si>
+  <si>
+    <t>Предусловия (Preconditions)</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Шаги (Steps to reproduce)</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат (Expected result)</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Авторизация зарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>1. Зайти в приложение Хоспис</t>
+  </si>
+  <si>
+    <t>2. Ввести зарегистрированные данные в поле Логин</t>
+  </si>
+  <si>
+    <t>3. Ввести зарегистрированные данные в поле Пароль</t>
+  </si>
+  <si>
+    <t>4. Выполнить тап на кнопке "Войти"</t>
+  </si>
+  <si>
+    <t>1. После спинера загрузки отображается страница авторизации</t>
+  </si>
+  <si>
+    <t>2. Поле заполняется</t>
+  </si>
+  <si>
+    <t>3. Поле заполняется</t>
+  </si>
+  <si>
+    <t>4. Отображается страница главного раздела</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Авторизация незарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>Мобильное устройство (эмулятор Android API 29) с установленным приложением "Хоспис" и доступом к интернету</t>
+  </si>
+  <si>
+    <t>4. Ошибка "Что-то пошло не так. Попробуйте позднее."</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя с пустыми полями Логин и Пароль</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Проверка отправки формы авторизации приложения с зарегистрированными данными Логин и Пароль</t>
+  </si>
+  <si>
+    <t>Проверка отправки формы авторизации приложения с незарегистрированными данными Логин и Пароль</t>
+  </si>
+  <si>
+    <t>Проверка отправки формы авторизации приложения с незаполненными полями Логина и Пароля</t>
+  </si>
+  <si>
+    <t>2. Выполнить тап на кнопке "Войти"</t>
+  </si>
+  <si>
+    <t>2. Ошибка "Логин и пароль не могут быть пустыми"</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Переход в разделы Hamburger - меню</t>
+  </si>
+  <si>
+    <t>Проверка переключения страниц при переходе в каждый раздел Hamburger - меню приложения Хоспис</t>
+  </si>
+  <si>
+    <t>6. Выполнить тап на "Новости"</t>
+  </si>
+  <si>
+    <t>6. Отображается страница раздела "Новости"</t>
+  </si>
+  <si>
+    <t>7. Выполнить тап на "О приложении"</t>
+  </si>
+  <si>
+    <t>7. Отображается страница раздела "О приложении"</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>8. Выполнить тап на "Главная"</t>
+  </si>
+  <si>
+    <t>8. Отображается страница главного раздела</t>
+  </si>
+  <si>
+    <t>5. Появляется pop-up  Hamburger menu</t>
+  </si>
+  <si>
+    <t>Скрытие/раскрытие общего списка "Новости" в разделе "Главная"</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Проверка возможности развернуть или свернуть общий список новостей в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>5. Выполнить тап на Action menu и убедиться, что вкладка "Главная" не активна</t>
+  </si>
+  <si>
+    <t>5. Вкладка "Главная" не активна</t>
+  </si>
+  <si>
+    <t>6. Выполнить тап на заголовке общего списка "Новости"</t>
+  </si>
+  <si>
+    <t>6. Содержимое общего списка "Новости" скрывается</t>
+  </si>
+  <si>
+    <t>7. Выполнить тап на заголовке общего списка "Новости"</t>
+  </si>
+  <si>
+    <t>7. Содержимое общего списка "Новости" раскрывается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Выполнить тап на Hamburger menu </t>
+  </si>
+  <si>
+    <t>5. Выполнить тап на Hamburger menu и убедиться, что вкладка "Главная" не активна</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Новости" из раздела "Главная"</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Проверка переключения страниц при переходе на страницу новостей из раздела Главная приложения Хоспис</t>
+  </si>
+  <si>
+    <t>Мобильное устройство (эмулятор Android API 29) с установленным приложением "Хоспис" и доступом к интернету.</t>
+  </si>
+  <si>
+    <t>2. Выполнить тап на ссылке "Все новости" в списке новостей раздела Главная</t>
+  </si>
+  <si>
+    <t>2. Отображается страница раздела "Новости"</t>
+  </si>
+  <si>
+    <t>Чтение новости в разделе "Главная"</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Проверка возможности развернуть/свернуть новость на странице "Главная" в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>6. Выполнить тап на любом варианте общего списка "Новости"</t>
+  </si>
+  <si>
+    <t>6. Новость разворачивается и отображается описание</t>
+  </si>
+  <si>
+    <t>7. Выполнить тап на выбранной новости</t>
+  </si>
+  <si>
+    <t>7. Новость сворачивается и отображается описание</t>
+  </si>
+  <si>
+    <t>Функциональные тесты</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +255,66 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -63,12 +322,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -403,12 +790,715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9F8DFD-1C7A-4816-BCBD-1D166C7C8638}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="30.36328125" customWidth="1"/>
+    <col min="7" max="7" width="26.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\diplomQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C74425-E09A-481C-B681-C77A3E5F0973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317EC50F-3CFD-4FEA-9B12-74429BEBB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4D3E962-7F9C-4E1C-895F-70500B7B2AE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="377">
   <si>
     <t>ID</t>
   </si>
@@ -240,6 +240,934 @@
   </si>
   <si>
     <t>Функциональные тесты</t>
+  </si>
+  <si>
+    <t>Обновление экрана в разделе "Главная"</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Проверка возможности обновления экрана в разделе "Главная" в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>6. Выполнить Pull to refresh (p2r) для обновления экрана</t>
+  </si>
+  <si>
+    <t>6. Содержание обновлено и отображается в соответствии с выбранной темой.</t>
+  </si>
+  <si>
+    <t>Скроллинг на экране "Новости"</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Проверить функциональность скроллинга вниз и вверх на экране "Новости" приложения Hospice</t>
+  </si>
+  <si>
+    <t>Мобильное устройство (эмулятор Android API 29) с установленным приложением "Хоспис" и доступом к интернету. Наличие новостей в количестве более 9 штук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Выполнить тап на Action menu </t>
+  </si>
+  <si>
+    <t>5. Появляется попап Action menu</t>
+  </si>
+  <si>
+    <t>7. Выполнить скролл на экране снизу вверх</t>
+  </si>
+  <si>
+    <t>7. Содержимое экрана плавно прокручивается вниз без задержек или ошибок</t>
+  </si>
+  <si>
+    <t>8. Выполнить скролл на экране сверху внизу</t>
+  </si>
+  <si>
+    <t>8. Содержимое экрана плавно прокручивается вверх без задержек или ошибок</t>
+  </si>
+  <si>
+    <t>Добавление новости с заполненными полями</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Проверка функциональности добавления новости с заполненными обязательными полями в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>5. Выполнить тап на Action menu</t>
+  </si>
+  <si>
+    <t>7. Выполнить тап на служебной кнопке редактирования списка новостей</t>
+  </si>
+  <si>
+    <t>7. Отображается "Панель управления"</t>
+  </si>
+  <si>
+    <t>8. Выполнить тап на служебной кнопке "+"</t>
+  </si>
+  <si>
+    <t>8. Отображается форма "Создание НОВОСТИ"</t>
+  </si>
+  <si>
+    <t>9. Выполнить тап на списке "Категория"</t>
+  </si>
+  <si>
+    <t>9. Появляется список с вариантами категорий</t>
+  </si>
+  <si>
+    <t>10. Выполнить тап на варианте списка</t>
+  </si>
+  <si>
+    <t>10. Выбранный вариант заполняется в поле списка "Категория"</t>
+  </si>
+  <si>
+    <t>11. Ввести в поле "Заголовок" данные</t>
+  </si>
+  <si>
+    <t>11. Поле заполняется</t>
+  </si>
+  <si>
+    <t>12. Выполнить тап на календаре "Дата публикации"</t>
+  </si>
+  <si>
+    <t>12. Отображается попап календаря</t>
+  </si>
+  <si>
+    <t>13. Выбрать текущий день публикации</t>
+  </si>
+  <si>
+    <t>13. Круглое выделение дня появляется у текущего дня</t>
+  </si>
+  <si>
+    <t>14. Выполнить тап на кнопке "ОК"</t>
+  </si>
+  <si>
+    <t>14. Попап закрывается, в поле "Дата публикации" отображается выбранная дата в формате "ДД.ММ.ГГГГ"</t>
+  </si>
+  <si>
+    <t>15. Выполнить тап на поле "Время"</t>
+  </si>
+  <si>
+    <t>15. Отображается попап выбора времени в виде циферблата</t>
+  </si>
+  <si>
+    <t>16. Выбрать текущую цифру часов</t>
+  </si>
+  <si>
+    <t>16. В заголовке попапа отображается выбранное значение часов</t>
+  </si>
+  <si>
+    <t>17. Выбрать текущую цифру минут</t>
+  </si>
+  <si>
+    <t>17. В заголовке попапа отображается выбранное значение минут</t>
+  </si>
+  <si>
+    <t>18. Выполнить тап на кнопке "ОК"</t>
+  </si>
+  <si>
+    <t>18. Попап закрывается, в поле "Время" отображается выбранное время в формате "ЧЧ:ММ"</t>
+  </si>
+  <si>
+    <t>19. Ввести в поле "Описание" данные</t>
+  </si>
+  <si>
+    <t>19. Поле заполняется</t>
+  </si>
+  <si>
+    <t>20. Выполнить тап на кнопке "Сохранить"</t>
+  </si>
+  <si>
+    <t>20. Новость отображается на странице "Панель управления"</t>
+  </si>
+  <si>
+    <t>Добавление новости с незаполненными полями</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>Проверка невозможности добавления новости с незаполненными обязательными полями в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>9. Выполнить тап на кнопке "Сохранить"</t>
+  </si>
+  <si>
+    <t>9. Сообщение "Заполните пустые поля". Напротив обязательных полей предупреждающий знак "!"</t>
+  </si>
+  <si>
+    <t>Сохранение формы Редактирование новости после внесенных изменений</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Проверка корректности сохранения формы редактирования новости после внесения изменений в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>8. Выполнить тап на служебной кнопке редактирования новости</t>
+  </si>
+  <si>
+    <t>8. Отображается форма "Редактирование НОВОСТИ"</t>
+  </si>
+  <si>
+    <t>10. Выполнить тап на варианте списка, отличающийся от текущего</t>
+  </si>
+  <si>
+    <t>11. Ввести новые данные в поле Заголовок</t>
+  </si>
+  <si>
+    <t>13. Выбрать день публикации, отличающийся от текущего</t>
+  </si>
+  <si>
+    <t>16. Выбрать цифру часов, отличающуюся от текущей</t>
+  </si>
+  <si>
+    <t>17. Выбрать цифру минут, отличающуюся от текущей</t>
+  </si>
+  <si>
+    <t>18. Ввести в поле "Описание" данные, отличающиеся от текущих</t>
+  </si>
+  <si>
+    <t>18. Поле заполняется</t>
+  </si>
+  <si>
+    <t>19. Выполнить тап на кнопке "Сохранить"</t>
+  </si>
+  <si>
+    <t>19. Форма "Редактирования НОВОСТИ" закрывается</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Проверка корректности удаления новости в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>21. Выполнить тап на служебной кнопке удаления добавленной новости</t>
+  </si>
+  <si>
+    <t>21. Новость не отображается на странице "Панель управления"</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Проверка корректности фильтрации списка новостей по категории в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>7. Выполнить тап на служебной кнопке фильтрации списка новостей</t>
+  </si>
+  <si>
+    <t>7. Отображается форма "Фильтровать новости"</t>
+  </si>
+  <si>
+    <t>8. Выполнить тап на списке "Категория"</t>
+  </si>
+  <si>
+    <t>8. Появляется список с вариантами категорий</t>
+  </si>
+  <si>
+    <t>9. Выполнить тап на варианте списка</t>
+  </si>
+  <si>
+    <t>9. Выбранный вариант заполняется в поле списка "Категория"</t>
+  </si>
+  <si>
+    <t>10. Выполнить тап на календаре "ОТ" даты публикации</t>
+  </si>
+  <si>
+    <t>10. Отображается попап календаря</t>
+  </si>
+  <si>
+    <t>11. Выбрать текущий день публикации</t>
+  </si>
+  <si>
+    <t>11. Круглое выделение дня появляется у текущего дня</t>
+  </si>
+  <si>
+    <t>12. Выполнить тап на кнопке "ОК"</t>
+  </si>
+  <si>
+    <t>12. Попап закрывается, в поле "Дата публикации" отображается выбранная дата в формате "ДД.ММ.ГГГГ"</t>
+  </si>
+  <si>
+    <t>13. Выполнить тап на календаре "ДО" даты публикации</t>
+  </si>
+  <si>
+    <t>13. Отображается попап календаря</t>
+  </si>
+  <si>
+    <t>14. Выбрать текущий день публикации</t>
+  </si>
+  <si>
+    <t>14. Круглое выделение дня появляется у текущего дня</t>
+  </si>
+  <si>
+    <t>15. Выполнить тап на кнопке "ОК"</t>
+  </si>
+  <si>
+    <t>15. Попап закрывается, в поле "Дата публикации" отображается выбранная дата в формате "ДД.ММ.ГГГГ"</t>
+  </si>
+  <si>
+    <t>16. Выполнить тап на кнопке "Фильтровать"</t>
+  </si>
+  <si>
+    <t>16. Отображаются новости согласно выбранной категории</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по дате и времени публикации</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>Проверка корректности фильтрации списка новостей по дате и времени публикации в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>11. Выбрать день публикации, отличающийся от текущего</t>
+  </si>
+  <si>
+    <t>14. Выбрать день публикации, отличающийся от текущего</t>
+  </si>
+  <si>
+    <t>16. Отображаются новости в выбранном периоде</t>
+  </si>
+  <si>
+    <t>Сортировка списка новостей</t>
+  </si>
+  <si>
+    <t>Проверка корректности сортировки списка новостей в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>7. Выполнить тап на служебной кнопке сортировки списка новостей</t>
+  </si>
+  <si>
+    <t>7. Порядок отображения списка новостей меняется</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>Обновление страницы раздела "Новости"</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Проверка возможности обновления экрана в разделе "Новости" в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>7. Выполнить Pull to refresh (p2r) для обновления экрана</t>
+  </si>
+  <si>
+    <t>7. Содержание обновлено и отображается в соответствии с выбранной темой.</t>
+  </si>
+  <si>
+    <t>Скроллинг на экране "Тематические цитаты"</t>
+  </si>
+  <si>
+    <t>Проверить функциональность скроллинга вниз и вверх на экране "Тематические цитаты" приложения Hospice</t>
+  </si>
+  <si>
+    <t>5. Перейти в раздел "Тематические цитаты"</t>
+  </si>
+  <si>
+    <t>5. Отображается страница раздела "Тематические цитаты"</t>
+  </si>
+  <si>
+    <t>6. Выполнить скролл на экране снизу вверх</t>
+  </si>
+  <si>
+    <t>6. Содержимое экрана плавно прокручивается вниз без задержек или ошибок</t>
+  </si>
+  <si>
+    <t>7. Выполнить скролл на экране сверху внизу</t>
+  </si>
+  <si>
+    <t>7. Содержимое экрана плавно прокручивается вверх без задержек или ошибок</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>Чтение статей на странице "Тематические цитаты"</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>Проверка возможности развернуть/свернуть тематическую цитату в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>6. Выполнить тап на любой из цитат</t>
+  </si>
+  <si>
+    <t>6. Цитата разворачивается и отображается описание</t>
+  </si>
+  <si>
+    <t>7. Повторно выполнить тап на выбранной цитате</t>
+  </si>
+  <si>
+    <t>7. Цитата сворачивается и описание не отображается</t>
+  </si>
+  <si>
+    <t>Переход по ссылкам в разделе "О приложении"</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>Проверка перехода по ссылкам в разделе "О поддержке" мобильного приложения Хоспис</t>
+  </si>
+  <si>
+    <t>6. Выполнить тап на "О приложении"</t>
+  </si>
+  <si>
+    <t>6. Отображается страница раздела "О приложении"</t>
+  </si>
+  <si>
+    <t>7. Выполнить тап на ссылке "Политика конфиденциальности"</t>
+  </si>
+  <si>
+    <t>7. Происходит переключение экрана устройства на приложение браузера</t>
+  </si>
+  <si>
+    <t>8. Использовать кнопку "Назад" системного меню устройства</t>
+  </si>
+  <si>
+    <t>8. Отображается страница раздела "О приложении"</t>
+  </si>
+  <si>
+    <t>9. Выполнить тап на ссылке "Пользовательское соглашение"</t>
+  </si>
+  <si>
+    <t>9. Происходит переключение экрана устройства на приложение браузера</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>Выход из личного кабинета</t>
+  </si>
+  <si>
+    <t>Проверка выхода из личного кабинета приложения Хоспис</t>
+  </si>
+  <si>
+    <t>5. Открывается окно с кнопкой Выйти</t>
+  </si>
+  <si>
+    <t>6. Открывается страница Авторизации с пустыми полями Логин и Пароль</t>
+  </si>
+  <si>
+    <t>5. Выполнить тап на кнопку Личный кабинет с изображением человечка справа в AppBar</t>
+  </si>
+  <si>
+    <t>6. Выполнить тап на кнопку Выйти</t>
+  </si>
+  <si>
+    <t>Нефункциональные тесты</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>Работа приложения при разной ориентации экрана устройства — портретная/ландшафтная</t>
+  </si>
+  <si>
+    <t>Проверка правильного отображения всех элементов приложения Хоспис при изменении ориентации экрана устройства (портретная/ландшафтная)</t>
+  </si>
+  <si>
+    <t>1. Выполнить тап на меню устройства с домашнего экрана (выполнив свайп снизу вверх)</t>
+  </si>
+  <si>
+    <t>1. Отображается список приложений устройства</t>
+  </si>
+  <si>
+    <t>2. Выполнить тап на Настройки</t>
+  </si>
+  <si>
+    <t>2. Отображается список названий настроек</t>
+  </si>
+  <si>
+    <t>3. Выполнить тап на Экран</t>
+  </si>
+  <si>
+    <t>3. Отображается страница раздела настроек "Экран"</t>
+  </si>
+  <si>
+    <t>4. Включить переключатель Автоповорот экрана (если отключен)</t>
+  </si>
+  <si>
+    <t>4. ToggleSwitch сдвигается</t>
+  </si>
+  <si>
+    <t>5. Вернуться на домашний экран</t>
+  </si>
+  <si>
+    <t>5. Отображается домашний экран устройства</t>
+  </si>
+  <si>
+    <t>6. Зайти в приложение</t>
+  </si>
+  <si>
+    <t>6. После спинера загрузки отображается страница авторизации</t>
+  </si>
+  <si>
+    <t>7. Расположить устройство в горизонтальное положение</t>
+  </si>
+  <si>
+    <t>7. Интерфейс приложения принимает горизонтальное положение</t>
+  </si>
+  <si>
+    <t>8. Расположить устройство в вертикальное положение</t>
+  </si>
+  <si>
+    <t>8. Интерфейс приложения принимает вертикальное положение</t>
+  </si>
+  <si>
+    <t>Работа приложения на светлой теме ОС</t>
+  </si>
+  <si>
+    <t>3. Выполнить тап на экран</t>
+  </si>
+  <si>
+    <t>Проверка правильного отображения всех элементов и текста приложения Хоспис на светлой теме операционной системы</t>
+  </si>
+  <si>
+    <t>4. Отключить переключатель Тёмная тема (если включен)</t>
+  </si>
+  <si>
+    <t>4. ToggleSwitch сдвигается, главный фон устройства стал светлым</t>
+  </si>
+  <si>
+    <t>6. Зайти в приложение Хоспис</t>
+  </si>
+  <si>
+    <t>7. Ввести данные в поля Логин и Пароль</t>
+  </si>
+  <si>
+    <t>7. Все элементы и текст четко видимы и легко читаемы на светлом фоне. Цветовая гамма приложения соответствует светлой теме.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>Работа приложения на темной теме ОС</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>Проверка правильного отображения всех элементов и текста приложения Хоспис на темной теме операционной системы</t>
+  </si>
+  <si>
+    <t>4. Включить переключатель Тёмная тема (если отключен)</t>
+  </si>
+  <si>
+    <t>4. ToggleSwitch сдвигается, главный фон устройства стал темным</t>
+  </si>
+  <si>
+    <t>7. Все элементы и текст четко видимы и легко читаемы на темном фоне. Цветовая гамма приложения соответствует светлой теме.</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя при использовании в поле логина SQL или XSS инъекции</t>
+  </si>
+  <si>
+    <t>Проверка безопасности формы авторизации приложения Хоспис при использовании инъекций в поле Логин</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>2. Ввести данные в поле Логин в виде SQL-инъекции (например - ' or 1 = 1')</t>
+  </si>
+  <si>
+    <t>5. Ввести данные в поле Логин в виде XSS-инъекции (например, &lt;script&gt;alert("Hello")&lt;/script&gt;)</t>
+  </si>
+  <si>
+    <t>5. Поле заполняется</t>
+  </si>
+  <si>
+    <t>6. Выполнить тап на кнопке "Войти"</t>
+  </si>
+  <si>
+    <t>6. Ошибка "Что-то пошло не так. Попробуйте позднее."</t>
+  </si>
+  <si>
+    <t>Авторизация пользователя при использовании в поле пароля SQL или XSS инъекции</t>
+  </si>
+  <si>
+    <t>Проверка безопасности формы авторизации приложения Хоспис при использовании инъекций в поле Пароль</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>3. Ввести данные в поле Пароль в виде SQL-инъекции (например - ' or 1 = 1')</t>
+  </si>
+  <si>
+    <t>5. Ввести данные в поле Пароль в виде XSS-инъекции (например, &lt;script&gt;alert("Hello world")&lt;/script&gt;)</t>
+  </si>
+  <si>
+    <t>Входящий звонок во время авторизации</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>4. Отправить входящий звонок на устройство</t>
+  </si>
+  <si>
+    <t>4. В верхней части экрана поверх приложения появляется окно с информацией о входящем звонке и кнопками Отrлонить и Ответить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.  Отклонить входящий звонок </t>
+  </si>
+  <si>
+    <t>5. На экране страница Авторизации с ранее введенными данными</t>
+  </si>
+  <si>
+    <t>Разрыв соединения во время авторизации</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>Проверка работы приложения при разрыве соединения</t>
+  </si>
+  <si>
+    <t>4. Разорвать соединение (включить режим В самолете)</t>
+  </si>
+  <si>
+    <t>5. Тапнуть кнопку Авторизоваться</t>
+  </si>
+  <si>
+    <t>4. В верхней части экрана поверх приложения появляется окно с информацией о входящем звонке и кнопками Отлонить и Ответить</t>
+  </si>
+  <si>
+    <t>5. В нижней части экрана появляется всплывающее окно с сообщением "Что-то пошло не так. Попробуйте позже"</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>Разрыв соединения во время создания новости</t>
+  </si>
+  <si>
+    <t>21. Тапнуть кнопку Сохранить</t>
+  </si>
+  <si>
+    <t>21. В нижней части экрана появляется всплывающее окно с сообщением "Сохранение не удалось. Попробуйте сохранить позднее"</t>
+  </si>
+  <si>
+    <t>20. Разорвать соединение (включить режим "В самолете")</t>
+  </si>
+  <si>
+    <t>20. Соединение разорвано</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>Проверка корректности получения входящих СМС-сообщений в мобильном приложении Хоспис</t>
+  </si>
+  <si>
+    <t>Мобильное устройство (эмулятор Android API 29) с установленным приложением "Хоспис" и доступом к интернету.
+Имеется активный номер телефона.</t>
+  </si>
+  <si>
+    <t>5. Раскрыть блок "Running Devices" в Android Studio</t>
+  </si>
+  <si>
+    <t>5. Отображается боковое окно с запущенным эмулятором</t>
+  </si>
+  <si>
+    <t>6. Перейти в Action menu эмулятора</t>
+  </si>
+  <si>
+    <t>6. Появляется окно "Extended Controls"</t>
+  </si>
+  <si>
+    <t>7. Выбрать "Phone" в главном меню настроек</t>
+  </si>
+  <si>
+    <t>7. Отображается форма настроек имитации звонка и SMS сообщения</t>
+  </si>
+  <si>
+    <t>8. Ввести в поле "SMS message" данные для сообщения (или оставить без изменений, если данные уже установлены)</t>
+  </si>
+  <si>
+    <t>8. Поле с сообщением заполняется (или уже заполнено)</t>
+  </si>
+  <si>
+    <t>9. Нажать на кнопку "Send Message"</t>
+  </si>
+  <si>
+    <t>9. Появляется пуш-уведомление о поступившем сообщении (текст соответствует заданному)</t>
+  </si>
+  <si>
+    <t>Прием  SMS сообщений</t>
+  </si>
+  <si>
+    <t>Работа приложения при использовании сети 3G</t>
+  </si>
+  <si>
+    <t>Проверка функциональности и производительности приложения "Хоспис" при использовании сети 3G на мобильном устройстве.</t>
+  </si>
+  <si>
+    <t>Мобильное устройство (эмулятор Android API 29) с установленным приложением "Хоспис" и доступом к интернету. Доступ к сети 3G на мобильном устройстве</t>
+  </si>
+  <si>
+    <t>2. Выполнить тап на "Настройки"</t>
+  </si>
+  <si>
+    <t>3. Выполнить тап на "Сети и Интернет"</t>
+  </si>
+  <si>
+    <t>3. Отображается страница "Сети и Интернет"</t>
+  </si>
+  <si>
+    <t>4. Выполнить тап на "Мобильная сеть"</t>
+  </si>
+  <si>
+    <t>4. Отображается страница "Мобильная сеть"</t>
+  </si>
+  <si>
+    <t>5. Выполнить тап на "Предпочтительный тип сети"</t>
+  </si>
+  <si>
+    <t>5. Появляется попап с выбором вариантов сети</t>
+  </si>
+  <si>
+    <t>6. Выполнить тап на радиобаттон "3G"</t>
+  </si>
+  <si>
+    <t>6. Попап исчезает, у подзаголовка отображается "3G"</t>
+  </si>
+  <si>
+    <t>7. Вернуться на домашний экран</t>
+  </si>
+  <si>
+    <t>7. Отображается домашний экран устройства</t>
+  </si>
+  <si>
+    <t>8. Зайти в приложение Хоспис</t>
+  </si>
+  <si>
+    <t>8. После спинера загрузки отображается страница авторизации</t>
+  </si>
+  <si>
+    <t>9. Выполнить тап на кнопке "Войти"</t>
+  </si>
+  <si>
+    <t>9. Приложение не зависает и не выдает ошибок, после спинера загрузки отображается страница авторизации</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>Работа приложения при использовании сети LTE</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>Проверка функциональности и производительности приложения "Хоспис" при использовании сети LTE на мобильном устройстве.</t>
+  </si>
+  <si>
+    <t>6. Выполнить тап на радиобаттон "LTE"</t>
+  </si>
+  <si>
+    <t>6. Попап исчезает, у подзаголовка отображается "LTE"</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>Работа приложения при использовании подключения к интернету через Wi-Fi</t>
+  </si>
+  <si>
+    <t>Проверка функциональности и производительности приложения "Хоспис" при использовании подключения к интернету через Wi-Fi на мобильном устройстве</t>
+  </si>
+  <si>
+    <t>4. Включить переключатель Wi-Fi (если отключен)</t>
+  </si>
+  <si>
+    <t>4. ToggleSwitch сдвигается, в Status Bar появляется значок Wi-Fi</t>
+  </si>
+  <si>
+    <t>6. Приложение не зависает и не выдает ошибок, после спинера загрузки отображается страница авторизации</t>
+  </si>
+  <si>
+    <t>Работа приложения при отсутствии подключения к интернету</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>Проверка функциональности и производительности приложения "Хоспис" при отсутствии подключения к интернету на мобильном устройстве</t>
+  </si>
+  <si>
+    <t>4. Выключить переключатель Wi-Fi (если включен)</t>
+  </si>
+  <si>
+    <t>4. ToggleSwitch сдвигается, в Status Bar исчезает значок Wi-Fi</t>
+  </si>
+  <si>
+    <t>5. Выполнить тап на "Мобильная сеть"</t>
+  </si>
+  <si>
+    <t>5. Отображается страница "Мобильная сеть"</t>
+  </si>
+  <si>
+    <t>6. Выключить переключатель "Мобильный интернет" (если включен)</t>
+  </si>
+  <si>
+    <t>6. ToggleSwitch сдвигается, в Status Bar исчезает значок сети</t>
+  </si>
+  <si>
+    <t>8. Бесконечный спинер загрузки приложения</t>
+  </si>
+  <si>
+    <t>Работа приложения при активном "режиме полета" устройства</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>Проверка функциональности и производительности приложения "Хоспис" при активном "режиме полета" на мобильном устройстве</t>
+  </si>
+  <si>
+    <t>4. Включить переключатель "Режим полета"</t>
+  </si>
+  <si>
+    <t>4. ToggleSwitch сдвигается, в Status Bar появляется значок самолетика</t>
+  </si>
+  <si>
+    <t>6. Бесконечный спинер загрузки приложения</t>
+  </si>
+  <si>
+    <t>Работа приложения с разрешением экрана 1440х2560 пикселей</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение "В Хосписе"</t>
+  </si>
+  <si>
+    <t>2. Ввести в поле "Логин" данные login2</t>
+  </si>
+  <si>
+    <t>3. Ввести в поле "Пароль" данные password2</t>
+  </si>
+  <si>
+    <t>4. Нажать на кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>5. В левом верхнем углу нажать на меню-гамбургер</t>
+  </si>
+  <si>
+    <t>6. В открывшемся боковом меню выбрать "Новости" и нажать</t>
+  </si>
+  <si>
+    <t>7. В верхней панели нажать на иконку редактирования</t>
+  </si>
+  <si>
+    <t>8. Перейти в раздел тематических цитат путем нажатия на иконку бабочки вверху приложения</t>
+  </si>
+  <si>
+    <t>1. После загрузки splashscreen открывается главное меню приложения</t>
+  </si>
+  <si>
+    <t>2. Поле заполняется, вводится текст "login2"</t>
+  </si>
+  <si>
+    <t>3. Поле заполняется, вводимый пароль скрывается точками</t>
+  </si>
+  <si>
+    <t>4. Кнопка активна и нажимается, открывается главная страница, открывается главная страница</t>
+  </si>
+  <si>
+    <t>5. Кнопка меню активна и нажимается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Раздел "Новости" кликабелен, после нажатия открывается страница с новостями </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Открывается панель управления новостями с возможностью добавления, редактирования, удаления </t>
+  </si>
+  <si>
+    <t>8. Отображаются тематические цитаты</t>
+  </si>
+  <si>
+    <t>Работа приложения с разрешением экрана 1080х2400 пикселей</t>
+  </si>
+  <si>
+    <t>Проверка четкости изображений и текста, корректного отображения и расположения элементов интерфейса с разрешением 1080х2400 пикселей</t>
+  </si>
+  <si>
+    <t>Проверка четкости изображений и текста, корректного отображения и расположения элементов интерфейса с разрешением 1440х2560 пикселей</t>
+  </si>
+  <si>
+    <t>Проверка свайпа</t>
+  </si>
+  <si>
+    <t>Проверка жеста тапа</t>
+  </si>
+  <si>
+    <t>5. Перейти в раздел тематических цитат путем нажатия на иконку бабочки вверху приложения</t>
+  </si>
+  <si>
+    <t>6. Свайпнуть список цитат вниз</t>
+  </si>
+  <si>
+    <t>7. Свайпнуть список цитат вверх</t>
+  </si>
+  <si>
+    <t>5. Отображаются тематические цитаты</t>
+  </si>
+  <si>
+    <t>6. Элементы списка быстро и без задержек пролистываются вниз и новые элементы добавляются снизу</t>
+  </si>
+  <si>
+    <t>7. Элементы списка быстро и без задержек пролистываются вверх и новые элементы добавляются сверху</t>
+  </si>
+  <si>
+    <t>5. В левом верхнем углу коротким быстрым движением пальца нажать на меню-гамбургер</t>
+  </si>
+  <si>
+    <t>6. В открывшемся боковом меню выбрать "О приложении" и коротким быстрым движением пальца нажать</t>
+  </si>
+  <si>
+    <t>6. Раздел "О приложении" кликабелен, после нажатия открывается открывается страница с ссылками на документацию</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>Проверка взаимодействия посредством жестов</t>
+  </si>
+  <si>
+    <t>Физическое устройство Samsung Galaxy S22, версия Android 13, диагональ 6.1 дюймов, разрешение 2340х1080 пикселей. Подключение к сети Wi-Fi, установлено приложение "В Хосписе".</t>
+  </si>
+  <si>
+    <t>Проверка работы приложения при входящем звонке во время авторизации</t>
   </si>
 </sst>
 </file>
@@ -270,7 +1198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +1241,14 @@
         <bgColor rgb="FFF6B26B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -387,11 +1321,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -415,6 +1386,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -444,6 +1427,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,7 +1454,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,12 +1798,48 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="525" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{74BCC06E-C2F6-4D91-876A-BC838000B892}">
+  <we:reference id="wa200005271" version="2.5.4.0" store="ru-RU" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200005271" version="2.5.4.0" store="WA200005271" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_AI_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_ASK</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_TRANSLATE</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9F8DFD-1C7A-4816-BCBD-1D166C7C8638}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,31 +1881,31 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -873,11 +1919,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
@@ -889,11 +1935,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
@@ -905,11 +1951,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
@@ -921,19 +1967,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -947,11 +1993,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
@@ -963,11 +2009,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
@@ -979,11 +2025,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
@@ -995,19 +2041,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1021,11 +2067,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1037,19 +2083,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1063,11 +2109,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1079,11 +2125,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1095,11 +2141,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1111,11 +2157,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="8" t="s">
         <v>52</v>
       </c>
@@ -1127,11 +2173,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
@@ -1143,27 +2189,27 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="8" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="8" t="s">
         <v>39</v>
       </c>
@@ -1175,19 +2221,19 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -1201,11 +2247,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="8" t="s">
         <v>12</v>
       </c>
@@ -1217,11 +2263,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="8" t="s">
         <v>13</v>
       </c>
@@ -1233,11 +2279,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="8" t="s">
         <v>14</v>
       </c>
@@ -1249,11 +2295,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="8" t="s">
         <v>53</v>
       </c>
@@ -1265,11 +2311,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="8" t="s">
         <v>48</v>
       </c>
@@ -1281,11 +2327,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="8" t="s">
         <v>50</v>
       </c>
@@ -1297,25 +2343,25 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -1323,15 +2369,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -1339,19 +2385,19 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -1365,11 +2411,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="8" t="s">
         <v>12</v>
       </c>
@@ -1381,11 +2427,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
@@ -1397,11 +2443,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1413,11 +2459,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="8" t="s">
         <v>46</v>
       </c>
@@ -1429,11 +2475,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="8" t="s">
         <v>63</v>
       </c>
@@ -1445,11 +2491,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="8" t="s">
         <v>65</v>
       </c>
@@ -1460,8 +2506,5144 @@
         <v>19</v>
       </c>
     </row>
+    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="14"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="14"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="14"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="14"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A68" s="14"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="15"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="14"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="14"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="23"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="23"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="23"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="23"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="23"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="23"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="23"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="23"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="23"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="23"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="23"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="23"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A93" s="23"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="23"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="23"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="23"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="23"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="24"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="14"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="14"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="14"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="14"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="14"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="14"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="14"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="14"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="14"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="14"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="14"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="14"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A112" s="14"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="14"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="14"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="14"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A116" s="14"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="14"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="14"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="15"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A121" s="26"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="26"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A123" s="26"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="26"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A125" s="26"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="26"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="26"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="26"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="26"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A130" s="26"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A131" s="26"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="26"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="26"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A134" s="26"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="27"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="14"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A138" s="14"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="14"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A140" s="14"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="14"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="14"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A143" s="14"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="14"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A145" s="14"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="14"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="14"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A148" s="14"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A149" s="15"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A151" s="20"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="20"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="20"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="20"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="20"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="21"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="14"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A159" s="14"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="14"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="14"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A162" s="14"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H162" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="15"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A165" s="14"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="14"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A167" s="14"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="14"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H168" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="14"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="15"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A172" s="14"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A173" s="14"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A174" s="14"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="14"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" s="14"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A177" s="15"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="20"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="20"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A181" s="20"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="20"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="20"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="20"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185" s="20"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="21"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="21"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="33"/>
+    </row>
+    <row r="194" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A194" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D194" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="14"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A196" s="14"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H196" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="14"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="14"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A199" s="14"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="14"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="15"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D202" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H202" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="14"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H203" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="14"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H204" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A205" s="14"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="17"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H205" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A206" s="14"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A207" s="14"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H207" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A208" s="15"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H208" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D209" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A210" s="14"/>
+      <c r="B210" s="17"/>
+      <c r="C210" s="17"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H210" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A211" s="14"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A212" s="14"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H212" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A213" s="14"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A214" s="14"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A215" s="15"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G215" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H215" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A216" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B216" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D216" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A217" s="14"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="17"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A218" s="14"/>
+      <c r="B218" s="17"/>
+      <c r="C218" s="17"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="14"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A220" s="14"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H220" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A221" s="14"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A222" s="14"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="17"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H222" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A223" s="15"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D224" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H224" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A225" s="14"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H225" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A226" s="14"/>
+      <c r="B226" s="17"/>
+      <c r="C226" s="17"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H226" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A227" s="14"/>
+      <c r="B227" s="17"/>
+      <c r="C227" s="17"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A228" s="14"/>
+      <c r="B228" s="17"/>
+      <c r="C228" s="17"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="17"/>
+      <c r="F228" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H228" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A229" s="14"/>
+      <c r="B229" s="17"/>
+      <c r="C229" s="17"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="17"/>
+      <c r="F229" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A230" s="14"/>
+      <c r="B230" s="17"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H230" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A231" s="15"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D232" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E232" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A233" s="14"/>
+      <c r="B233" s="17"/>
+      <c r="C233" s="17"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="17"/>
+      <c r="F233" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A234" s="14"/>
+      <c r="B234" s="17"/>
+      <c r="C234" s="17"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="17"/>
+      <c r="F234" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H234" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A235" s="14"/>
+      <c r="B235" s="17"/>
+      <c r="C235" s="17"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="17"/>
+      <c r="F235" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="14"/>
+      <c r="B236" s="17"/>
+      <c r="C236" s="17"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="17"/>
+      <c r="F236" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="H236" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A237" s="14"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A238" s="15"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A239" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B239" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D239" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F239" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H239" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A240" s="14"/>
+      <c r="B240" s="17"/>
+      <c r="C240" s="17"/>
+      <c r="D240" s="20"/>
+      <c r="E240" s="17"/>
+      <c r="F240" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A241" s="14"/>
+      <c r="B241" s="17"/>
+      <c r="C241" s="17"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H241" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A242" s="14"/>
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="17"/>
+      <c r="F242" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H242" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A243" s="14"/>
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="17"/>
+      <c r="F243" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H243" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A244" s="15"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H244" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A245" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D245" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A246" s="14"/>
+      <c r="B246" s="17"/>
+      <c r="C246" s="17"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="17"/>
+      <c r="F246" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G246" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H246" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A247" s="14"/>
+      <c r="B247" s="17"/>
+      <c r="C247" s="17"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="17"/>
+      <c r="F247" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H247" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A248" s="14"/>
+      <c r="B248" s="17"/>
+      <c r="C248" s="17"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="17"/>
+      <c r="F248" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G248" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H248" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A249" s="14"/>
+      <c r="B249" s="17"/>
+      <c r="C249" s="17"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="17"/>
+      <c r="F249" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H249" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A250" s="15"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H250" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A251" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D251" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A252" s="14"/>
+      <c r="B252" s="17"/>
+      <c r="C252" s="17"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="17"/>
+      <c r="F252" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H252" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A253" s="14"/>
+      <c r="B253" s="17"/>
+      <c r="C253" s="17"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="17"/>
+      <c r="F253" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A254" s="14"/>
+      <c r="B254" s="17"/>
+      <c r="C254" s="17"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="17"/>
+      <c r="F254" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G254" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A255" s="14"/>
+      <c r="B255" s="17"/>
+      <c r="C255" s="17"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H255" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A256" s="15"/>
+      <c r="B256" s="18"/>
+      <c r="C256" s="18"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G256" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A257" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D257" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H257" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A258" s="14"/>
+      <c r="B258" s="17"/>
+      <c r="C258" s="17"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="17"/>
+      <c r="F258" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H258" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A259" s="14"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="17"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H259" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A260" s="14"/>
+      <c r="B260" s="17"/>
+      <c r="C260" s="17"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="17"/>
+      <c r="F260" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G260" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H260" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A261" s="15"/>
+      <c r="B261" s="18"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H261" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A262" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D262" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E262" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G262" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A263" s="14"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="17"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="17"/>
+      <c r="F263" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H263" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A264" s="14"/>
+      <c r="B264" s="17"/>
+      <c r="C264" s="17"/>
+      <c r="D264" s="20"/>
+      <c r="E264" s="17"/>
+      <c r="F264" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H264" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A265" s="14"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="17"/>
+      <c r="F265" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G265" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H265" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A266" s="15"/>
+      <c r="B266" s="18"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="18"/>
+      <c r="F266" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H266" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A267" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C267" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E267" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H267" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A268" s="14"/>
+      <c r="B268" s="17"/>
+      <c r="C268" s="17"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="17"/>
+      <c r="F268" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H268" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A269" s="14"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G269" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H269" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A270" s="14"/>
+      <c r="B270" s="17"/>
+      <c r="C270" s="17"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="17"/>
+      <c r="F270" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G270" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H270" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A271" s="14"/>
+      <c r="B271" s="17"/>
+      <c r="C271" s="17"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="17"/>
+      <c r="F271" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G271" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H271" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A272" s="14"/>
+      <c r="B272" s="17"/>
+      <c r="C272" s="17"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G272" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H272" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A273" s="14"/>
+      <c r="B273" s="17"/>
+      <c r="C273" s="17"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="17"/>
+      <c r="F273" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H273" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A274" s="14"/>
+      <c r="B274" s="17"/>
+      <c r="C274" s="17"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="17"/>
+      <c r="F274" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G274" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H274" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A275" s="14"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G275" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H275" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A276" s="14"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="17"/>
+      <c r="D276" s="20"/>
+      <c r="E276" s="17"/>
+      <c r="F276" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G276" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H276" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A277" s="14"/>
+      <c r="B277" s="17"/>
+      <c r="C277" s="17"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="17"/>
+      <c r="F277" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G277" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H277" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A278" s="14"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="17"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="17"/>
+      <c r="F278" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G278" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H278" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A279" s="14"/>
+      <c r="B279" s="17"/>
+      <c r="C279" s="17"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="17"/>
+      <c r="F279" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H279" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A280" s="14"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="17"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="17"/>
+      <c r="F280" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G280" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H280" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="14"/>
+      <c r="B281" s="17"/>
+      <c r="C281" s="17"/>
+      <c r="D281" s="20"/>
+      <c r="E281" s="17"/>
+      <c r="F281" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H281" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A282" s="14"/>
+      <c r="B282" s="17"/>
+      <c r="C282" s="17"/>
+      <c r="D282" s="20"/>
+      <c r="E282" s="17"/>
+      <c r="F282" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G282" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H282" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A283" s="14"/>
+      <c r="B283" s="17"/>
+      <c r="C283" s="17"/>
+      <c r="D283" s="20"/>
+      <c r="E283" s="17"/>
+      <c r="F283" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H283" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A284" s="14"/>
+      <c r="B284" s="17"/>
+      <c r="C284" s="17"/>
+      <c r="D284" s="20"/>
+      <c r="E284" s="17"/>
+      <c r="F284" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G284" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H284" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A285" s="14"/>
+      <c r="B285" s="17"/>
+      <c r="C285" s="17"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="17"/>
+      <c r="F285" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H285" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A286" s="14"/>
+      <c r="B286" s="17"/>
+      <c r="C286" s="17"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="17"/>
+      <c r="F286" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G286" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H286" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A287" s="15"/>
+      <c r="B287" s="18"/>
+      <c r="C287" s="18"/>
+      <c r="D287" s="21"/>
+      <c r="E287" s="18"/>
+      <c r="F287" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H287" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A288" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D288" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F288" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G288" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H288" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A289" s="14"/>
+      <c r="B289" s="17"/>
+      <c r="C289" s="17"/>
+      <c r="D289" s="20"/>
+      <c r="E289" s="17"/>
+      <c r="F289" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H289" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A290" s="14"/>
+      <c r="B290" s="17"/>
+      <c r="C290" s="17"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="17"/>
+      <c r="F290" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H290" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A291" s="14"/>
+      <c r="B291" s="17"/>
+      <c r="C291" s="17"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="17"/>
+      <c r="F291" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H291" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A292" s="14"/>
+      <c r="B292" s="17"/>
+      <c r="C292" s="17"/>
+      <c r="D292" s="20"/>
+      <c r="E292" s="17"/>
+      <c r="F292" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H292" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A293" s="14"/>
+      <c r="B293" s="17"/>
+      <c r="C293" s="17"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="17"/>
+      <c r="F293" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G293" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H293" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A294" s="14"/>
+      <c r="B294" s="17"/>
+      <c r="C294" s="17"/>
+      <c r="D294" s="20"/>
+      <c r="E294" s="17"/>
+      <c r="F294" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G294" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H294" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A295" s="14"/>
+      <c r="B295" s="17"/>
+      <c r="C295" s="17"/>
+      <c r="D295" s="20"/>
+      <c r="E295" s="17"/>
+      <c r="F295" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G295" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H295" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A296" s="15"/>
+      <c r="B296" s="18"/>
+      <c r="C296" s="18"/>
+      <c r="D296" s="21"/>
+      <c r="E296" s="18"/>
+      <c r="F296" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G296" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H296" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A297" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D297" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E297" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F297" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G297" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H297" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A298" s="14"/>
+      <c r="B298" s="17"/>
+      <c r="C298" s="17"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="17"/>
+      <c r="F298" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G298" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H298" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A299" s="14"/>
+      <c r="B299" s="17"/>
+      <c r="C299" s="17"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="17"/>
+      <c r="F299" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G299" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H299" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A300" s="14"/>
+      <c r="B300" s="17"/>
+      <c r="C300" s="17"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="17"/>
+      <c r="F300" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G300" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H300" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A301" s="14"/>
+      <c r="B301" s="17"/>
+      <c r="C301" s="17"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="17"/>
+      <c r="F301" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G301" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H301" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A302" s="14"/>
+      <c r="B302" s="17"/>
+      <c r="C302" s="17"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="17"/>
+      <c r="F302" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G302" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H302" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A303" s="14"/>
+      <c r="B303" s="17"/>
+      <c r="C303" s="17"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="17"/>
+      <c r="F303" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G303" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H303" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A304" s="14"/>
+      <c r="B304" s="17"/>
+      <c r="C304" s="17"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="17"/>
+      <c r="F304" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G304" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H304" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A305" s="15"/>
+      <c r="B305" s="18"/>
+      <c r="C305" s="18"/>
+      <c r="D305" s="15"/>
+      <c r="E305" s="18"/>
+      <c r="F305" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G305" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H305" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A306" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C306" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D306" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E306" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F306" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G306" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H306" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A307" s="14"/>
+      <c r="B307" s="17"/>
+      <c r="C307" s="17"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="17"/>
+      <c r="F307" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G307" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H307" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A308" s="14"/>
+      <c r="B308" s="17"/>
+      <c r="C308" s="17"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="17"/>
+      <c r="F308" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G308" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H308" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A309" s="14"/>
+      <c r="B309" s="17"/>
+      <c r="C309" s="17"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="17"/>
+      <c r="F309" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G309" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H309" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A310" s="14"/>
+      <c r="B310" s="17"/>
+      <c r="C310" s="17"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="17"/>
+      <c r="F310" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G310" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H310" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A311" s="14"/>
+      <c r="B311" s="17"/>
+      <c r="C311" s="17"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="17"/>
+      <c r="F311" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G311" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H311" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A312" s="14"/>
+      <c r="B312" s="17"/>
+      <c r="C312" s="17"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="17"/>
+      <c r="F312" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G312" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H312" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A313" s="14"/>
+      <c r="B313" s="17"/>
+      <c r="C313" s="17"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="17"/>
+      <c r="F313" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="H313" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A314" s="15"/>
+      <c r="B314" s="18"/>
+      <c r="C314" s="18"/>
+      <c r="D314" s="15"/>
+      <c r="E314" s="18"/>
+      <c r="F314" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G314" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H314" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A315" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B315" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C315" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D315" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E315" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="F315" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G315" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H315" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A316" s="14"/>
+      <c r="B316" s="17"/>
+      <c r="C316" s="17"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="17"/>
+      <c r="F316" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G316" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H316" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A317" s="14"/>
+      <c r="B317" s="17"/>
+      <c r="C317" s="17"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="17"/>
+      <c r="F317" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G317" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H317" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A318" s="14"/>
+      <c r="B318" s="17"/>
+      <c r="C318" s="17"/>
+      <c r="D318" s="14"/>
+      <c r="E318" s="17"/>
+      <c r="F318" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G318" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H318" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A319" s="14"/>
+      <c r="B319" s="17"/>
+      <c r="C319" s="17"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="17"/>
+      <c r="F319" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G319" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H319" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A320" s="15"/>
+      <c r="B320" s="18"/>
+      <c r="C320" s="18"/>
+      <c r="D320" s="15"/>
+      <c r="E320" s="18"/>
+      <c r="F320" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G320" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H320" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A321" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B321" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C321" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D321" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E321" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="F321" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G321" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H321" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A322" s="14"/>
+      <c r="B322" s="17"/>
+      <c r="C322" s="17"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="17"/>
+      <c r="F322" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G322" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H322" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A323" s="14"/>
+      <c r="B323" s="17"/>
+      <c r="C323" s="17"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="17"/>
+      <c r="F323" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G323" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H323" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A324" s="14"/>
+      <c r="B324" s="17"/>
+      <c r="C324" s="17"/>
+      <c r="D324" s="14"/>
+      <c r="E324" s="17"/>
+      <c r="F324" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G324" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H324" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A325" s="14"/>
+      <c r="B325" s="17"/>
+      <c r="C325" s="17"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="17"/>
+      <c r="F325" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G325" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H325" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A326" s="14"/>
+      <c r="B326" s="17"/>
+      <c r="C326" s="17"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="17"/>
+      <c r="F326" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G326" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H326" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A327" s="14"/>
+      <c r="B327" s="17"/>
+      <c r="C327" s="17"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="17"/>
+      <c r="F327" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G327" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H327" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A328" s="15"/>
+      <c r="B328" s="18"/>
+      <c r="C328" s="18"/>
+      <c r="D328" s="15"/>
+      <c r="E328" s="18"/>
+      <c r="F328" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G328" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H328" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A329" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B329" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C329" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="D329" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E329" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="F329" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G329" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H329" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A330" s="14"/>
+      <c r="B330" s="17"/>
+      <c r="C330" s="17"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="17"/>
+      <c r="F330" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G330" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H330" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A331" s="14"/>
+      <c r="B331" s="17"/>
+      <c r="C331" s="17"/>
+      <c r="D331" s="14"/>
+      <c r="E331" s="17"/>
+      <c r="F331" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G331" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H331" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A332" s="14"/>
+      <c r="B332" s="17"/>
+      <c r="C332" s="17"/>
+      <c r="D332" s="14"/>
+      <c r="E332" s="17"/>
+      <c r="F332" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G332" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H332" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A333" s="14"/>
+      <c r="B333" s="17"/>
+      <c r="C333" s="17"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="17"/>
+      <c r="F333" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G333" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H333" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A334" s="15"/>
+      <c r="B334" s="18"/>
+      <c r="C334" s="18"/>
+      <c r="D334" s="15"/>
+      <c r="E334" s="18"/>
+      <c r="F334" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G334" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="H334" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="197">
+    <mergeCell ref="A267:A287"/>
+    <mergeCell ref="B267:B287"/>
+    <mergeCell ref="C267:C287"/>
+    <mergeCell ref="D267:D287"/>
+    <mergeCell ref="E267:E287"/>
+    <mergeCell ref="A288:A296"/>
+    <mergeCell ref="B288:B296"/>
+    <mergeCell ref="C288:C296"/>
+    <mergeCell ref="E288:E296"/>
+    <mergeCell ref="D288:D296"/>
+    <mergeCell ref="A257:A261"/>
+    <mergeCell ref="B257:B261"/>
+    <mergeCell ref="D257:D261"/>
+    <mergeCell ref="E257:E261"/>
+    <mergeCell ref="B262:B266"/>
+    <mergeCell ref="A262:A266"/>
+    <mergeCell ref="C262:C266"/>
+    <mergeCell ref="D262:D266"/>
+    <mergeCell ref="E262:E266"/>
+    <mergeCell ref="C257:C261"/>
+    <mergeCell ref="A194:A201"/>
+    <mergeCell ref="B194:B201"/>
+    <mergeCell ref="C194:C201"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="E194:E201"/>
+    <mergeCell ref="A178:A186"/>
+    <mergeCell ref="B178:B186"/>
+    <mergeCell ref="C178:C186"/>
+    <mergeCell ref="D178:D186"/>
+    <mergeCell ref="E178:E186"/>
+    <mergeCell ref="A193:H193"/>
+    <mergeCell ref="B171:B177"/>
+    <mergeCell ref="C171:C177"/>
+    <mergeCell ref="D171:D177"/>
+    <mergeCell ref="E171:E177"/>
+    <mergeCell ref="D150:D156"/>
+    <mergeCell ref="E150:E156"/>
+    <mergeCell ref="A136:A149"/>
+    <mergeCell ref="B136:B149"/>
+    <mergeCell ref="C136:C149"/>
+    <mergeCell ref="D136:D149"/>
+    <mergeCell ref="E136:E149"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="C164:C170"/>
+    <mergeCell ref="D164:D170"/>
+    <mergeCell ref="E164:E170"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="B157:B163"/>
+    <mergeCell ref="C157:C163"/>
+    <mergeCell ref="D157:D163"/>
+    <mergeCell ref="E157:E163"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="C30:C36"/>
@@ -1482,6 +7664,11 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
@@ -1493,11 +7680,115 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="A51:A70"/>
+    <mergeCell ref="B51:B70"/>
+    <mergeCell ref="C51:C70"/>
+    <mergeCell ref="D51:D70"/>
+    <mergeCell ref="E51:E70"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="C71:C79"/>
+    <mergeCell ref="D71:D79"/>
+    <mergeCell ref="E71:E79"/>
+    <mergeCell ref="B80:B98"/>
+    <mergeCell ref="A80:A98"/>
+    <mergeCell ref="C80:C98"/>
+    <mergeCell ref="D80:D98"/>
+    <mergeCell ref="E80:E98"/>
+    <mergeCell ref="A187:A192"/>
+    <mergeCell ref="B187:B192"/>
+    <mergeCell ref="C187:C192"/>
+    <mergeCell ref="D187:D192"/>
+    <mergeCell ref="E187:E192"/>
+    <mergeCell ref="A120:A135"/>
+    <mergeCell ref="B120:B135"/>
+    <mergeCell ref="C120:C135"/>
+    <mergeCell ref="D120:D135"/>
+    <mergeCell ref="E120:E135"/>
+    <mergeCell ref="A99:A119"/>
+    <mergeCell ref="B99:B119"/>
+    <mergeCell ref="C99:C119"/>
+    <mergeCell ref="D99:D119"/>
+    <mergeCell ref="E99:E119"/>
+    <mergeCell ref="A150:A156"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="C150:C156"/>
+    <mergeCell ref="A171:A177"/>
+    <mergeCell ref="D245:D250"/>
+    <mergeCell ref="E245:E250"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="B251:B256"/>
+    <mergeCell ref="C251:C256"/>
+    <mergeCell ref="E251:E256"/>
+    <mergeCell ref="D251:D256"/>
+    <mergeCell ref="A202:A208"/>
+    <mergeCell ref="B202:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="D202:D208"/>
+    <mergeCell ref="E202:E208"/>
+    <mergeCell ref="A209:A215"/>
+    <mergeCell ref="B209:B215"/>
+    <mergeCell ref="C209:C215"/>
+    <mergeCell ref="D209:D215"/>
+    <mergeCell ref="E209:E215"/>
+    <mergeCell ref="D239:D244"/>
+    <mergeCell ref="A245:A250"/>
+    <mergeCell ref="B245:B250"/>
+    <mergeCell ref="C245:C250"/>
+    <mergeCell ref="E239:E244"/>
+    <mergeCell ref="A315:A320"/>
+    <mergeCell ref="B315:B320"/>
+    <mergeCell ref="C315:C320"/>
+    <mergeCell ref="E315:E320"/>
+    <mergeCell ref="D315:D320"/>
+    <mergeCell ref="A321:A328"/>
+    <mergeCell ref="B321:B328"/>
+    <mergeCell ref="C321:C328"/>
+    <mergeCell ref="D321:D328"/>
+    <mergeCell ref="E321:E328"/>
+    <mergeCell ref="B297:B305"/>
+    <mergeCell ref="C297:C305"/>
+    <mergeCell ref="E297:E305"/>
+    <mergeCell ref="D297:D305"/>
+    <mergeCell ref="A306:A314"/>
+    <mergeCell ref="B306:B314"/>
+    <mergeCell ref="C306:C314"/>
+    <mergeCell ref="E306:E314"/>
+    <mergeCell ref="D306:D314"/>
+    <mergeCell ref="A329:A334"/>
+    <mergeCell ref="B329:B334"/>
+    <mergeCell ref="C329:C334"/>
+    <mergeCell ref="E329:E334"/>
+    <mergeCell ref="D329:D334"/>
+    <mergeCell ref="B216:B223"/>
+    <mergeCell ref="A216:A223"/>
+    <mergeCell ref="C216:C223"/>
+    <mergeCell ref="D216:D223"/>
+    <mergeCell ref="E216:E223"/>
+    <mergeCell ref="A224:A231"/>
+    <mergeCell ref="B224:B231"/>
+    <mergeCell ref="C224:C231"/>
+    <mergeCell ref="D224:D231"/>
+    <mergeCell ref="E224:E231"/>
+    <mergeCell ref="A232:A238"/>
+    <mergeCell ref="B232:B238"/>
+    <mergeCell ref="C232:C238"/>
+    <mergeCell ref="D232:D238"/>
+    <mergeCell ref="E232:E238"/>
+    <mergeCell ref="A239:A244"/>
+    <mergeCell ref="B239:B244"/>
+    <mergeCell ref="C239:C244"/>
+    <mergeCell ref="A297:A305"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
